--- a/doc/Encoder/encoder4.xlsx
+++ b/doc/Encoder/encoder4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUMR\doc\Encoder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Simple Data with Plots" sheetId="4" r:id="rId2"/>
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -521,8 +526,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -544,6 +549,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -572,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -670,11 +680,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,6 +782,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,14 +798,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -773,7 +820,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -836,6 +882,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4CE-4FE4-9BBA-F948F2B8174E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -883,7 +934,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="171972096"/>
@@ -938,7 +989,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139058560"/>
@@ -995,7 +1046,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1028,7 +1079,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1040,9 +1091,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,6 +1190,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2695-476F-9BCA-1F2B42FBE93B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -1158,6 +1214,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2695-476F-9BCA-1F2B42FBE93B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1204,7 +1265,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139029888"/>
@@ -1261,7 +1322,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139028352"/>
@@ -1318,7 +1379,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1351,7 +1412,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1809,10 +1870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J1668"/>
+  <dimension ref="A1:L1668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1642" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1885,7 @@
     <col min="7" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -1848,7 +1909,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +2008,15 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="25">
+        <v>1.01</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(K6:K15)</f>
+        <v>0.85310000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +2035,11 @@
       <c r="F7" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2058,11 @@
       <c r="F8" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="26">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2007,8 +2081,11 @@
       <c r="F9" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
@@ -2027,8 +2104,11 @@
       <c r="F10" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
@@ -2047,8 +2127,11 @@
       <c r="F11" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
@@ -2067,8 +2150,11 @@
       <c r="F12" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="26">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
@@ -2087,8 +2173,11 @@
       <c r="F13" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -2107,8 +2196,11 @@
       <c r="F14" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="26">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
@@ -2127,8 +2219,11 @@
       <c r="F15" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="26">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
